--- a/New party.xlsx
+++ b/New party.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leon_weiser_student_kuleuven_be/Documents/2nd Semester/Collecting Big Data for Social Science/Final Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leon_weiser_student_kuleuven_be/Documents/Documents/GitHub/Parliamentary_Debates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{A76460EA-326E-49CF-90B3-4DE6691DFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446EBBA8-DA99-48FD-B189-F7E16B2E064B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{A76460EA-326E-49CF-90B3-4DE6691DFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7308BE-7F67-4F80-A992-A42CD1006F1A}"/>
   <bookViews>
     <workbookView xWindow="45960" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C3C8225-62A7-4801-9B28-34E0EF10AC23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="364">
   <si>
     <t>Angela Rayner</t>
   </si>
@@ -593,9 +593,6 @@
     <t xml:space="preserve">Amanda Milling          </t>
   </si>
   <si>
-    <t xml:space="preserve">Anna Soubry Anne-Marie Trevelyan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ben Wallace        </t>
   </si>
   <si>
@@ -1125,6 +1122,12 @@
   </si>
   <si>
     <t>Chris Heaton-Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne-Marie Trevelyan </t>
+  </si>
+  <si>
+    <t>Anna Soubry</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C59EDE-B876-4E47-803F-188B31A82C46}">
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>175</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>175</v>
@@ -3007,7 +3010,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>175</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>175</v>
@@ -3023,7 +3026,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>175</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>175</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>175</v>
@@ -3047,7 +3050,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>175</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>175</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>175</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>175</v>
@@ -3079,7 +3082,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>175</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>175</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>175</v>
@@ -3103,7 +3106,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>175</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>175</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>175</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>175</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>175</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>175</v>
@@ -3151,7 +3154,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>175</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>175</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>175</v>
@@ -3175,7 +3178,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>175</v>
@@ -3183,7 +3186,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>175</v>
@@ -3191,7 +3194,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>175</v>
@@ -3199,7 +3202,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>175</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>175</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>175</v>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>175</v>
@@ -3231,7 +3234,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>175</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>175</v>
@@ -3247,7 +3250,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>175</v>
@@ -3255,7 +3258,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>175</v>
@@ -3263,7 +3266,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>175</v>
@@ -3271,7 +3274,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>175</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>175</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>175</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>175</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>175</v>
@@ -3311,7 +3314,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>175</v>
@@ -3319,7 +3322,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>175</v>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>175</v>
@@ -3335,7 +3338,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>175</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>175</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>175</v>
@@ -3359,7 +3362,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>175</v>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>175</v>
@@ -3375,23 +3378,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>175</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>175</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>175</v>
@@ -3415,7 +3418,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>175</v>
@@ -3423,7 +3426,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>175</v>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>175</v>
@@ -3439,7 +3442,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>175</v>
@@ -3447,7 +3450,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>175</v>
@@ -3455,7 +3458,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>175</v>
@@ -3463,296 +3466,296 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A241" s="4" t="s">
+      <c r="B242" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A242" s="4" t="s">
+      <c r="B243" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A243" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A244" s="4" t="s">
+      <c r="B244" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A245" s="4" t="s">
+      <c r="B246" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A246" s="4" t="s">
+      <c r="B247" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A247" s="4" t="s">
+      <c r="B248" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A248" s="4" t="s">
+      <c r="B249" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A249" s="4" t="s">
+      <c r="B250" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A250" s="4" t="s">
+      <c r="B251" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A251" s="4" t="s">
+      <c r="B252" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A252" s="4" t="s">
+      <c r="B253" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A253" s="4" t="s">
+      <c r="B254" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A254" s="4" t="s">
+      <c r="B255" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A255" s="4" t="s">
+      <c r="B256" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A256" s="4" t="s">
+      <c r="B257" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F257" s="5"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F256" s="5"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A257" s="4" t="s">
+      <c r="B258" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A258" s="4" t="s">
+      <c r="B259" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A259" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A260" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A261" s="4" t="s">
+      <c r="B262" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A262" s="4" t="s">
+      <c r="B263" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A263" s="4" t="s">
+      <c r="B264" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A264" s="4" t="s">
+      <c r="B265" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A265" s="4" t="s">
+      <c r="B266" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A266" s="4" t="s">
+      <c r="B267" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A267" s="4" t="s">
+      <c r="B268" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A268" s="4" t="s">
+      <c r="B269" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A269" s="4" t="s">
+      <c r="B270" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A270" s="4" t="s">
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A271" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A272" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="B272" s="1" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>175</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>175</v>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>175</v>
@@ -3776,7 +3779,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>175</v>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>175</v>
@@ -3792,7 +3795,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>175</v>
@@ -3800,7 +3803,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>175</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>175</v>
@@ -3816,7 +3819,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>175</v>
@@ -3824,23 +3827,23 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>175</v>
@@ -3848,7 +3851,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>175</v>
@@ -3856,7 +3859,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>175</v>
@@ -3864,7 +3867,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>175</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>175</v>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>175</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>175</v>
@@ -3896,7 +3899,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>175</v>
@@ -3904,7 +3907,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>175</v>
@@ -3912,7 +3915,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>175</v>
@@ -3920,7 +3923,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>175</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>175</v>
@@ -3936,7 +3939,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>175</v>
@@ -3944,7 +3947,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>175</v>
@@ -3952,7 +3955,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>175</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>175</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>175</v>
@@ -3976,7 +3979,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>175</v>
@@ -3984,7 +3987,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>175</v>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>175</v>
@@ -4000,7 +4003,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>175</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>175</v>
@@ -4016,23 +4019,23 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>175</v>
@@ -4040,7 +4043,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>175</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>175</v>
@@ -4056,7 +4059,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>175</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>175</v>
@@ -4072,7 +4075,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>175</v>
@@ -4080,15 +4083,15 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1</v>
@@ -4096,15 +4099,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>175</v>
@@ -4112,23 +4115,23 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>175</v>
@@ -4136,7 +4139,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>175</v>
@@ -4144,7 +4147,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>175</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>175</v>
@@ -4160,7 +4163,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>175</v>
@@ -4168,23 +4171,23 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>175</v>
@@ -4192,7 +4195,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>175</v>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>175</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>175</v>
@@ -4216,7 +4219,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>175</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>175</v>
@@ -4232,7 +4235,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>175</v>
@@ -4240,39 +4243,39 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>175</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>175</v>
@@ -4288,23 +4291,23 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>175</v>
@@ -4312,7 +4315,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>175</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>175</v>
@@ -4328,7 +4331,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>175</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>175</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>175</v>
@@ -4352,7 +4355,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>175</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>175</v>
@@ -4368,33 +4371,41 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>175</v>
       </c>
     </row>
